--- a/data/Subset1_WithDialogActs/Ladder problem 5_Grade 7.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset1_WithDialogActs/Ladder problem 5_Grade 7.xlsx_with_dialog_acts.xlsx
@@ -623,12 +623,12 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1383,12 +1383,12 @@
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1421,12 +1421,12 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1649,12 +1649,12 @@
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2181,12 +2181,12 @@
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -2447,12 +2447,12 @@
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2599,12 +2599,12 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2787,12 +2787,12 @@
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -3623,12 +3623,12 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3851,12 +3851,12 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
